--- a/HW3_Excel1/HW3 _112305409.xlsx
+++ b/HW3_Excel1/HW3 _112305409.xlsx
@@ -8,17 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\崑\Desktop\機概\1141_IntroToCS_1123051409\HW3_Excel1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3446B351-98EA-454A-8920-6460B740F8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADF131A-34F2-4D85-848A-8404F086A552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{60C2E2F6-AD98-4042-9BF5-DA3DB7B4AD4C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">工作表1!$J$18</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">工作表1!$J$18</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -319,7 +315,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -338,40 +334,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -419,56 +386,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2616,7 +2533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9961FA0D-67BD-4FEB-B956-7740A55D5973}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -2663,7 +2580,7 @@
       <c r="K1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2704,7 +2621,7 @@
         <f t="array" ref="K2">_xlfn.IFS(J2&gt;=90,"A",J2&gt;=80,"B",J2&gt;=70,"C",J2&gt;=60,"D",J2&gt;=0,"F")</f>
         <v>A</v>
       </c>
-      <c r="L2" s="6" t="str" cm="1">
+      <c r="L2" t="str" cm="1">
         <f t="array" ref="L2">_xlfn.IFS(J2&gt;=60,"pass",J2&lt;60,"fail")</f>
         <v>pass</v>
       </c>
@@ -2746,7 +2663,7 @@
         <f t="array" ref="K3">_xlfn.IFS(J3&gt;=90,"A",J3&gt;=80,"B",J3&gt;=70,"C",J3&gt;=60,"D",J3&gt;=0,"F")</f>
         <v>A</v>
       </c>
-      <c r="L3" s="6" t="str" cm="1">
+      <c r="L3" t="str" cm="1">
         <f t="array" ref="L3">_xlfn.IFS(J3&gt;=60,"pass",J3&lt;60,"fail")</f>
         <v>pass</v>
       </c>
@@ -2788,7 +2705,7 @@
         <f t="array" ref="K4">_xlfn.IFS(J4&gt;=90,"A",J4&gt;=80,"B",J4&gt;=70,"C",J4&gt;=60,"D",J4&gt;=0,"F")</f>
         <v>B</v>
       </c>
-      <c r="L4" s="6" t="str" cm="1">
+      <c r="L4" t="str" cm="1">
         <f t="array" ref="L4">_xlfn.IFS(J4&gt;=60,"pass",J4&lt;60,"fail")</f>
         <v>pass</v>
       </c>
@@ -2830,7 +2747,7 @@
         <f t="array" ref="K5">_xlfn.IFS(J5&gt;=90,"A",J5&gt;=80,"B",J5&gt;=70,"C",J5&gt;=60,"D",J5&gt;=0,"F")</f>
         <v>B</v>
       </c>
-      <c r="L5" s="6" t="str" cm="1">
+      <c r="L5" t="str" cm="1">
         <f t="array" ref="L5">_xlfn.IFS(J5&gt;=60,"pass",J5&lt;60,"fail")</f>
         <v>pass</v>
       </c>
@@ -2872,7 +2789,7 @@
         <f t="array" ref="K6">_xlfn.IFS(J6&gt;=90,"A",J6&gt;=80,"B",J6&gt;=70,"C",J6&gt;=60,"D",J6&gt;=0,"F")</f>
         <v>B</v>
       </c>
-      <c r="L6" s="6" t="str" cm="1">
+      <c r="L6" t="str" cm="1">
         <f t="array" ref="L6">_xlfn.IFS(J6&gt;=60,"pass",J6&lt;60,"fail")</f>
         <v>pass</v>
       </c>
@@ -2914,7 +2831,7 @@
         <f t="array" ref="K7">_xlfn.IFS(J7&gt;=90,"A",J7&gt;=80,"B",J7&gt;=70,"C",J7&gt;=60,"D",J7&gt;=0,"F")</f>
         <v>B</v>
       </c>
-      <c r="L7" s="6" t="str" cm="1">
+      <c r="L7" t="str" cm="1">
         <f t="array" ref="L7">_xlfn.IFS(J7&gt;=60,"pass",J7&lt;60,"fail")</f>
         <v>pass</v>
       </c>
@@ -2956,7 +2873,7 @@
         <f t="array" ref="K8">_xlfn.IFS(J8&gt;=90,"A",J8&gt;=80,"B",J8&gt;=70,"C",J8&gt;=60,"D",J8&gt;=0,"F")</f>
         <v>C</v>
       </c>
-      <c r="L8" s="6" t="str" cm="1">
+      <c r="L8" t="str" cm="1">
         <f t="array" ref="L8">_xlfn.IFS(J8&gt;=60,"pass",J8&lt;60,"fail")</f>
         <v>pass</v>
       </c>
@@ -2998,7 +2915,7 @@
         <f t="array" ref="K9">_xlfn.IFS(J9&gt;=90,"A",J9&gt;=80,"B",J9&gt;=70,"C",J9&gt;=60,"D",J9&gt;=0,"F")</f>
         <v>C</v>
       </c>
-      <c r="L9" s="6" t="str" cm="1">
+      <c r="L9" t="str" cm="1">
         <f t="array" ref="L9">_xlfn.IFS(J9&gt;=60,"pass",J9&lt;60,"fail")</f>
         <v>pass</v>
       </c>
@@ -3040,7 +2957,7 @@
         <f t="array" ref="K10">_xlfn.IFS(J10&gt;=90,"A",J10&gt;=80,"B",J10&gt;=70,"C",J10&gt;=60,"D",J10&gt;=0,"F")</f>
         <v>C</v>
       </c>
-      <c r="L10" s="6" t="str" cm="1">
+      <c r="L10" t="str" cm="1">
         <f t="array" ref="L10">_xlfn.IFS(J10&gt;=60,"pass",J10&lt;60,"fail")</f>
         <v>pass</v>
       </c>
@@ -3082,7 +2999,7 @@
         <f t="array" ref="K11">_xlfn.IFS(J11&gt;=90,"A",J11&gt;=80,"B",J11&gt;=70,"C",J11&gt;=60,"D",J11&gt;=0,"F")</f>
         <v>C</v>
       </c>
-      <c r="L11" s="6" t="str" cm="1">
+      <c r="L11" t="str" cm="1">
         <f t="array" ref="L11">_xlfn.IFS(J11&gt;=60,"pass",J11&lt;60,"fail")</f>
         <v>pass</v>
       </c>
@@ -3124,7 +3041,7 @@
         <f t="array" ref="K12">_xlfn.IFS(J12&gt;=90,"A",J12&gt;=80,"B",J12&gt;=70,"C",J12&gt;=60,"D",J12&gt;=0,"F")</f>
         <v>B</v>
       </c>
-      <c r="L12" s="6" t="str" cm="1">
+      <c r="L12" t="str" cm="1">
         <f t="array" ref="L12">_xlfn.IFS(J12&gt;=60,"pass",J12&lt;60,"fail")</f>
         <v>pass</v>
       </c>
@@ -3166,7 +3083,7 @@
         <f t="array" ref="K13">_xlfn.IFS(J13&gt;=90,"A",J13&gt;=80,"B",J13&gt;=70,"C",J13&gt;=60,"D",J13&gt;=0,"F")</f>
         <v>F</v>
       </c>
-      <c r="L13" s="6" t="str" cm="1">
+      <c r="L13" t="str" cm="1">
         <f t="array" ref="L13">_xlfn.IFS(J13&gt;=60,"pass",J13&lt;60,"fail")</f>
         <v>fail</v>
       </c>
@@ -3208,7 +3125,7 @@
         <f t="array" ref="K14">_xlfn.IFS(J14&gt;=90,"A",J14&gt;=80,"B",J14&gt;=70,"C",J14&gt;=60,"D",J14&gt;=0,"F")</f>
         <v>D</v>
       </c>
-      <c r="L14" s="6" t="str" cm="1">
+      <c r="L14" t="str" cm="1">
         <f t="array" ref="L14">_xlfn.IFS(J14&gt;=60,"pass",J14&lt;60,"fail")</f>
         <v>pass</v>
       </c>
@@ -3250,7 +3167,7 @@
         <f t="array" ref="K15">_xlfn.IFS(J15&gt;=90,"A",J15&gt;=80,"B",J15&gt;=70,"C",J15&gt;=60,"D",J15&gt;=0,"F")</f>
         <v>F</v>
       </c>
-      <c r="L15" s="6" t="str" cm="1">
+      <c r="L15" t="str" cm="1">
         <f t="array" ref="L15">_xlfn.IFS(J15&gt;=60,"pass",J15&lt;60,"fail")</f>
         <v>fail</v>
       </c>
@@ -3292,7 +3209,7 @@
       <c r="L17" t="s">
         <v>32</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17">
         <f>COUNTIF(L2:L15,"pass")</f>
         <v>12</v>
       </c>
@@ -3301,7 +3218,7 @@
       <c r="L18" t="s">
         <v>33</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18">
         <f>COUNTIF(L2:L15,"fail")</f>
         <v>2</v>
       </c>
@@ -3314,24 +3231,22 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="L2:L15 M17:M18">
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="pass">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",L2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13:L15 M17:M18">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",L13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L15 M17:M18">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
